--- a/webapp/input/Dash_LCOE_ConfigurationV5.xlsx
+++ b/webapp/input/Dash_LCOE_ConfigurationV5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\webapp\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC305A15-7412-45D9-85C3-8C7BFE601C0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760513FC-71A3-43E1-B05C-699096A4416C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2645,7 +2645,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3381,7 +3381,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/webapp/input/Dash_LCOE_ConfigurationV5.xlsx
+++ b/webapp/input/Dash_LCOE_ConfigurationV5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\webapp\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760513FC-71A3-43E1-B05C-699096A4416C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7F8DA5-0D07-418F-9005-E570689B6D4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="61">
   <si>
     <t>component</t>
   </si>
@@ -77,9 +77,6 @@
     <t>1MW  base case, Ver. 09/22</t>
   </si>
   <si>
-    <t>Peaker</t>
-  </si>
-  <si>
     <t>Production Cost Green Ammonia 2020 [Irena 2022]</t>
   </si>
   <si>
@@ -201,6 +198,15 @@
   </si>
   <si>
     <t>emission_op_collateral_kg_kWh</t>
+  </si>
+  <si>
+    <t>electricity_price</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>addition of CHP case</t>
   </si>
 </sst>
 </file>
@@ -634,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,23 +652,23 @@
     <col min="3" max="3" width="41.6640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="35.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="8" width="33.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
@@ -670,22 +676,25 @@
       <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5">
         <v>100</v>
@@ -693,13 +702,16 @@
       <c r="G2" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="5">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -708,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="5">
         <v>2900</v>
@@ -716,13 +728,16 @@
       <c r="G3" s="5">
         <v>1800</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -731,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="5">
         <v>1760</v>
@@ -739,13 +754,16 @@
       <c r="G4" s="5">
         <v>740</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1</v>
@@ -754,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5">
         <v>4019</v>
@@ -762,13 +780,16 @@
       <c r="G5" s="5">
         <v>2145</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -777,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5">
         <v>7.0000000000000007E-2</v>
@@ -785,13 +806,16 @@
       <c r="G6" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>1</v>
@@ -800,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5">
         <v>0.05</v>
@@ -808,13 +832,16 @@
       <c r="G7" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1</v>
@@ -823,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5">
         <v>0.15</v>
@@ -831,13 +858,16 @@
       <c r="G8" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
@@ -846,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5">
         <v>35</v>
@@ -854,13 +884,16 @@
       <c r="G9" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="5">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -869,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5">
         <v>25</v>
@@ -877,13 +910,16 @@
       <c r="G10" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="5">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1</v>
@@ -892,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5">
         <v>50</v>
@@ -900,22 +936,25 @@
       <c r="G11" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="5">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5">
         <v>100</v>
@@ -923,13 +962,16 @@
       <c r="G12" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="5">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
@@ -938,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
         <v>2000</v>
@@ -946,13 +988,16 @@
       <c r="G13" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
@@ -961,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="5">
         <v>1000</v>
@@ -969,13 +1014,16 @@
       <c r="G14" s="5">
         <v>700</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
@@ -984,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5">
         <v>3000</v>
@@ -992,13 +1040,16 @@
       <c r="G15" s="5">
         <v>1500</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
@@ -1007,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5">
         <v>0.05</v>
@@ -1015,13 +1066,16 @@
       <c r="G16" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
@@ -1030,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="5">
         <v>0.04</v>
@@ -1038,13 +1092,16 @@
       <c r="G17" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>5</v>
@@ -1053,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5">
         <v>0.06</v>
@@ -1061,13 +1118,16 @@
       <c r="G18" s="5">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
@@ -1076,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="5">
         <v>55</v>
@@ -1084,13 +1144,16 @@
       <c r="G19" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="5">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
@@ -1099,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="5">
         <v>45</v>
@@ -1107,13 +1170,16 @@
       <c r="G20" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="5">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>5</v>
@@ -1122,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5">
         <v>65</v>
@@ -1130,13 +1196,16 @@
       <c r="G21" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="5">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
@@ -1145,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="5">
         <v>45000</v>
@@ -1153,13 +1222,16 @@
       <c r="G22" s="5">
         <v>45000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="5">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -1168,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="5">
         <v>30000</v>
@@ -1176,13 +1248,16 @@
       <c r="G23" s="5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
@@ -1191,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="5">
         <v>60000</v>
@@ -1199,13 +1274,16 @@
       <c r="G24" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
@@ -1214,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="5">
         <v>60</v>
@@ -1222,13 +1300,16 @@
       <c r="G25" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
@@ -1237,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="5">
         <v>40</v>
@@ -1245,13 +1326,16 @@
       <c r="G26" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
@@ -1260,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="5">
         <v>70</v>
@@ -1268,22 +1352,25 @@
       <c r="G27" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="5">
         <v>100</v>
@@ -1291,13 +1378,16 @@
       <c r="G28" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1306,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" s="5">
         <v>1000</v>
@@ -1314,13 +1404,16 @@
       <c r="G29" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1329,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="5">
         <v>800</v>
@@ -1337,13 +1430,16 @@
       <c r="G30" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>8</v>
@@ -1352,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="5">
         <v>1200</v>
@@ -1360,13 +1456,16 @@
       <c r="G31" s="5">
         <v>1200</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>8</v>
@@ -1375,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" s="5">
         <v>0.02</v>
@@ -1383,13 +1482,16 @@
       <c r="G32" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>8</v>
@@ -1398,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="5">
         <v>0.01</v>
@@ -1406,13 +1508,16 @@
       <c r="G33" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
@@ -1421,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="5">
         <v>0.03</v>
@@ -1429,13 +1534,16 @@
       <c r="G34" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>8</v>
@@ -1444,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="5">
         <v>40</v>
@@ -1452,13 +1560,16 @@
       <c r="G35" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>8</v>
@@ -1467,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="5">
         <v>37</v>
@@ -1475,13 +1586,16 @@
       <c r="G36" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>8</v>
@@ -1490,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="5">
         <v>42</v>
@@ -1498,22 +1612,25 @@
       <c r="G37" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" s="5">
         <v>50</v>
@@ -1521,22 +1638,25 @@
       <c r="G38" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="5">
         <v>50</v>
@@ -1544,22 +1664,25 @@
       <c r="G39" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" s="5">
         <v>50</v>
@@ -1567,22 +1690,25 @@
       <c r="G40" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" s="5">
         <v>703</v>
@@ -1590,22 +1716,25 @@
       <c r="G41" s="5">
         <v>703</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" s="5">
         <v>703</v>
@@ -1613,22 +1742,25 @@
       <c r="G42" s="5">
         <v>703</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="5">
         <v>703</v>
@@ -1636,22 +1768,25 @@
       <c r="G43" s="5">
         <v>703</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="5">
         <v>84.7</v>
@@ -1659,22 +1794,25 @@
       <c r="G44" s="5">
         <v>84.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="5">
         <v>84.7</v>
@@ -1682,22 +1820,25 @@
       <c r="G45" s="5">
         <v>84.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="5">
         <v>84.7</v>
@@ -1705,22 +1846,25 @@
       <c r="G46" s="5">
         <v>84.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
@@ -1728,22 +1872,25 @@
       <c r="G47" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
@@ -1751,22 +1898,25 @@
       <c r="G48" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
@@ -1774,22 +1924,25 @@
       <c r="G49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
@@ -1797,22 +1950,25 @@
       <c r="G50" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -1820,22 +1976,25 @@
       <c r="G51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
@@ -1843,22 +2002,25 @@
       <c r="G52" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -1866,22 +2028,25 @@
       <c r="G53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
@@ -1889,27 +2054,33 @@
       <c r="G54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1921,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708E7F0-2DE7-4611-91D4-02BADD085AA2}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,29 +2107,29 @@
     <col min="5" max="5" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="21.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
+      <c r="G1" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
@@ -1969,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -1978,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5">
         <v>3</v>
@@ -1995,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
@@ -2004,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -2021,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -2030,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5">
         <v>8</v>
@@ -2047,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -2056,7 +2227,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5">
         <v>15</v>
@@ -2073,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -2082,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5">
         <v>10</v>
@@ -2099,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -2108,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5">
         <v>20</v>
@@ -2125,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -2134,13 +2305,13 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5">
         <v>6000</v>
       </c>
       <c r="G8" s="5">
-        <v>750</v>
+        <v>7008</v>
       </c>
       <c r="H8" s="5">
         <v>6000</v>
@@ -2151,7 +2322,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -2160,13 +2331,13 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="5">
         <v>4500</v>
       </c>
       <c r="G9" s="5">
-        <v>700</v>
+        <v>7008</v>
       </c>
       <c r="H9" s="5">
         <v>4500</v>
@@ -2177,7 +2348,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -2186,13 +2357,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5">
         <v>7000</v>
       </c>
       <c r="G10" s="5">
-        <v>800</v>
+        <v>7008</v>
       </c>
       <c r="H10" s="5">
         <v>7000</v>
@@ -2203,22 +2374,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5">
         <v>100</v>
       </c>
       <c r="G11" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <v>100</v>
@@ -2229,22 +2400,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="5">
         <v>50</v>
       </c>
       <c r="G12" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <v>50</v>
@@ -2255,16 +2426,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
         <v>250</v>
@@ -2281,22 +2452,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5">
         <v>10</v>
       </c>
       <c r="G14" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
         <v>10</v>
@@ -2307,22 +2478,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="5">
         <v>5</v>
       </c>
       <c r="G15" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
         <v>5</v>
@@ -2333,16 +2504,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5">
         <v>20</v>
@@ -2354,115 +2525,172 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2537,18 +2765,21 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
@@ -2633,6 +2864,24 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2642,16 +2891,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1301B-A377-4F3E-A07F-0E5926CDAB2B}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
@@ -2662,48 +2911,51 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1">
         <v>8.6499999999999994E-2</v>
@@ -2717,22 +2969,25 @@
       <c r="I2" s="1">
         <v>9.3709256844850056E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1">
         <v>5.1900000000000002E-2</v>
@@ -2746,22 +3001,25 @@
       <c r="I3" s="1">
         <v>6.51890482398957E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1">
         <v>0.14000000000000001</v>
@@ -2775,22 +3033,25 @@
       <c r="I4" s="1">
         <v>0.12222946544980444</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1">
         <v>-10</v>
@@ -2804,22 +3065,25 @@
       <c r="I5" s="1">
         <v>-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1">
         <v>-25</v>
@@ -2833,22 +3097,25 @@
       <c r="I6" s="1">
         <v>-25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1">
         <v>-5</v>
@@ -2862,22 +3129,25 @@
       <c r="I7" s="1">
         <v>-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1">
         <v>0.26100000000000001</v>
@@ -2891,22 +3161,25 @@
       <c r="I8" s="1">
         <v>0.26100000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
         <v>0.26100000000000001</v>
@@ -2920,22 +3193,25 @@
       <c r="I9" s="1">
         <v>0.26100000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1">
         <v>0.26100000000000001</v>
@@ -2949,14 +3225,17 @@
       <c r="I10" s="1">
         <v>0.26100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5"/>
       <c r="G11" s="5">
@@ -2969,11 +3248,11 @@
         <v>575</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5"/>
       <c r="G12" s="5">
@@ -2986,11 +3265,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5"/>
       <c r="G13" s="5">
@@ -3003,11 +3282,11 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
       <c r="G14" s="5">
@@ -3015,11 +3294,11 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5"/>
       <c r="G15" s="5">
@@ -3027,7 +3306,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3378,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DF341-8C1A-4D19-88F8-FE2D2A0FBA8F}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3395,42 +3674,45 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5">
         <v>1.4999999999999999E-2</v>
@@ -3438,22 +3720,25 @@
       <c r="G2" s="5">
         <v>9.4971605452992547E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5">
         <v>9.1999999999999998E-3</v>
@@ -3462,22 +3747,25 @@
         <f>G2*0.9</f>
         <v>8.5474444907693292E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5">
         <v>0.03</v>
@@ -3486,22 +3774,25 @@
         <f>G2*1.1</f>
         <v>1.044687659982918E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5">
         <v>10</v>
@@ -3509,22 +3800,25 @@
       <c r="G5" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>
@@ -3532,22 +3826,25 @@
       <c r="G6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5">
         <v>15</v>
@@ -3555,22 +3852,25 @@
       <c r="G7" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5">
         <v>0.2</v>
@@ -3578,22 +3878,25 @@
       <c r="G8" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="5">
         <v>0.2</v>
@@ -3601,22 +3904,25 @@
       <c r="G9" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5">
         <v>0.2</v>
@@ -3624,10 +3930,13 @@
       <c r="G10" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3636,13 +3945,13 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5">
         <v>11.6</v>
@@ -3651,13 +3960,13 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5">
         <v>34.35</v>
@@ -3666,11 +3975,11 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5">
         <v>10.066990178017212</v>
@@ -3679,9 +3988,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3692,7 +4001,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3742,7 +4051,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -4107,7 +4416,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4117,13 +4426,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -4132,10 +4441,10 @@
         <v>44855</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4143,10 +4452,10 @@
         <v>44887</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4154,10 +4463,10 @@
         <v>44889</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4165,10 +4474,10 @@
         <v>44905</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4176,10 +4485,10 @@
         <v>45063</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4187,16 +4496,22 @@
         <v>45744</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="10">
+        <v>45770</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/webapp/input/Dash_LCOE_ConfigurationV5.xlsx
+++ b/webapp/input/Dash_LCOE_ConfigurationV5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\webapp\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7F8DA5-0D07-418F-9005-E570689B6D4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CE09C1-3A1A-4292-9C85-8DAD06A6A70B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +729,7 @@
         <v>1800</v>
       </c>
       <c r="H3" s="5">
-        <v>2000</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -755,7 +755,7 @@
         <v>740</v>
       </c>
       <c r="H4" s="5">
-        <v>1000</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -781,7 +781,7 @@
         <v>2145</v>
       </c>
       <c r="H5" s="5">
-        <v>3000</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2094,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708E7F0-2DE7-4611-91D4-02BADD085AA2}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,7 +2545,7 @@
         <v>0.18</v>
       </c>
       <c r="G17" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H17" s="5">
         <v>0.2</v>
@@ -2571,7 +2571,7 @@
         <v>0.2</v>
       </c>
       <c r="G18" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H18" s="5">
         <v>0.2</v>
@@ -2893,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1301B-A377-4F3E-A07F-0E5926CDAB2B}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
